--- a/lab5/lab5.xlsx
+++ b/lab5/lab5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamaj\code\CT-labs\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92514DF-AC0E-44B7-993C-AE18D255C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F00DF8-B40F-4D2C-B912-0EBB50640576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -116,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,7 +408,7 @@
   <dimension ref="B1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="Z4" sqref="Z4:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,14 +576,14 @@
         <v>63.6</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F24" si="0">C5-D5</f>
+        <f t="shared" ref="F5:F7" si="0">C5-D5</f>
         <v>0.68300000000000005</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H24" si="1">F5/G5</f>
+        <f t="shared" ref="H5:H7" si="1">F5/G5</f>
         <v>6.8300000000000001E-3</v>
       </c>
       <c r="K5" t="s">
@@ -592,11 +603,11 @@
         <v>0.22100000000000009</v>
       </c>
       <c r="P5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q7" si="3">O5/P5</f>
-        <v>2.1881188118811888E-3</v>
+        <v>2.210000000000001E-3</v>
       </c>
       <c r="U5" t="s">
         <v>9</v>
@@ -615,11 +626,11 @@
         <v>0.751</v>
       </c>
       <c r="Z5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA5">
         <f t="shared" ref="AA5:AA7" si="5">Y5/Z5</f>
-        <v>7.4356435643564353E-3</v>
+        <v>7.5100000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
@@ -663,11 +674,11 @@
         <v>0.21800000000000008</v>
       </c>
       <c r="P6">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>2.137254901960785E-3</v>
+        <v>2.1800000000000009E-3</v>
       </c>
       <c r="U6" t="s">
         <v>10</v>
@@ -686,11 +697,11 @@
         <v>0.60699999999999998</v>
       </c>
       <c r="Z6">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA6">
         <f t="shared" si="5"/>
-        <v>5.9509803921568624E-3</v>
+        <v>6.0699999999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
@@ -734,11 +745,11 @@
         <v>7.3000000000000176E-2</v>
       </c>
       <c r="P7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <f t="shared" si="3"/>
-        <v>7.0873786407767158E-4</v>
+        <v>7.3000000000000181E-4</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
@@ -757,11 +768,11 @@
         <v>6.6999999999999948E-2</v>
       </c>
       <c r="Z7">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA7">
         <f t="shared" si="5"/>
-        <v>6.5048543689320338E-4</v>
+        <v>6.6999999999999948E-4</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -899,11 +910,11 @@
         <v>0.19600000000000006</v>
       </c>
       <c r="P14">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <f t="shared" ref="Q14:Q16" si="8">O14/P14</f>
-        <v>1.9405940594059412E-3</v>
+        <v>1.9600000000000008E-3</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -920,7 +931,7 @@
         <v>15.4</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F14:F16" si="9">C15-D15</f>
+        <f t="shared" ref="F15:F16" si="9">C15-D15</f>
         <v>0.16600000000000015</v>
       </c>
       <c r="G15">
@@ -947,11 +958,11 @@
         <v>0.19400000000000006</v>
       </c>
       <c r="P15">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <f t="shared" si="8"/>
-        <v>1.901960784313726E-3</v>
+        <v>1.9400000000000005E-3</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.25">
@@ -995,11 +1006,11 @@
         <v>7.7000000000000179E-2</v>
       </c>
       <c r="P16">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <f t="shared" si="8"/>
-        <v>7.4757281553398231E-4</v>
+        <v>7.700000000000018E-4</v>
       </c>
     </row>
   </sheetData>
